--- a/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
+++ b/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E641E73-2D80-4745-865E-3D8D17E47A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA4F6A9-5A33-4731-BE37-A9474AE3B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo Lineal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Xi</t>
   </si>
@@ -107,12 +107,21 @@
   <si>
     <t>1/Yi</t>
   </si>
+  <si>
+    <t>Valores Para El grafico</t>
+  </si>
+  <si>
+    <t>//HACER LOS GRAFICOS Y PREGUNTARLE A AGUS SI NECESITA GRAFICO O CON MOSTRAR GEOGEBRA ESTA BIEN</t>
+  </si>
+  <si>
+    <t>La forma de la curva: Si la curva se curva hacia arriba de manera constante, un modelo potencial podría ser más apropiado. Si la curva muestra un crecimiento inicial rápido y luego se aplana, un modelo de crecimiento podría ser más adecuado.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +142,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -185,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -336,11 +351,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,6 +473,4230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Metodo Lineal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6506407287324381E-2"/>
+          <c:y val="0.27723015877170482"/>
+          <c:w val="0.87180731820287172"/>
+          <c:h val="0.53663289052680196"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A85-40D1-BAC2-4A8FF56C429A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="665196111"/>
+        <c:axId val="749458943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="665196111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749458943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="749458943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665196111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ejemplo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Exponencial'!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Exponencial'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7193-46F2-8D2A-56EC958AA905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="751275647"/>
+        <c:axId val="751279967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="751275647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751279967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="751279967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751275647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodo Potencia</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Potencia'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Potencia'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75D7-467D-9DFD-AF89FBC2E16C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="852251935"/>
+        <c:axId val="852252415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="852251935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852252415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="852252415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852251935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metodo Crecimiento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Crecimiento'!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Crecimiento'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EB0-4712-B4CB-06F7F1576302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="751278047"/>
+        <c:axId val="665204543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="751278047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665204543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="665204543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751278047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61929EFC-FD32-0F2F-FB22-F8BE08E21B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="600075"/>
+          <a:ext cx="2457450" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E0E619-DAF3-D6F7-F834-2B505647E22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="857250" y="2038350"/>
+          <a:ext cx="1933575" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6AD3B5-96A6-888D-E122-EC53C1DDEA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969EE4A0-2F92-4647-B396-3FBEF9ED7FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="352425"/>
+          <a:ext cx="3571875" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B35AEB-E61C-F992-4594-579C8904834F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1076325" y="1781175"/>
+          <a:ext cx="1504950" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCC6445-012B-D5DA-1EBE-3A3ABCA4F88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>710256</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ABEBF51-A1B0-15E5-31EC-49BFA3F1B043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="600075"/>
+          <a:ext cx="2996256" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B789C077-9DFE-6A2C-66B4-87A0A95904B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="962025" y="2095500"/>
+          <a:ext cx="1238250" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2ABF99-DC32-D853-8C09-E1E9AD5AE71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F49285-26D3-AFDC-063F-729B58D20187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="323850"/>
+          <a:ext cx="2457450" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D31B01-735B-D10A-76F5-22268433D275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="2276475"/>
+          <a:ext cx="2838450" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBF712C-11FE-58CC-9AFD-BBC2F965316A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,7 +4999,7 @@
   <dimension ref="F1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,15 +5353,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA40654-A814-40D2-871E-188E3E9FF765}">
-  <dimension ref="F1:V22"/>
+  <dimension ref="F1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +5370,7 @@
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
@@ -1117,15 +5378,24 @@
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="M2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,8 +5426,15 @@
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
-    </row>
-    <row r="4" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>IF(G4 &gt; 0, LN(G4), 0)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="4" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F4" s="5">
         <v>1</v>
       </c>
@@ -1179,8 +5456,15 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="6">
+        <f t="shared" ref="Y4:Y7" si="1">IF(G5 &gt; 0, LN(G5), 0)</f>
+        <v>0.53062825106217038</v>
+      </c>
+    </row>
+    <row r="5" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F5" s="5">
         <v>2</v>
       </c>
@@ -1188,7 +5472,7 @@
         <v>1.7</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H20" si="1">IF(G5 &gt; 0, LN(G5), 0)</f>
+        <f t="shared" ref="H5:H20" si="2">IF(G5 &gt; 0, LN(G5), 0)</f>
         <v>0.53062825106217038</v>
       </c>
       <c r="I5" s="6">
@@ -1196,14 +5480,21 @@
         <v>4</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J20" si="2">F5*H5</f>
+        <f t="shared" ref="J5:J20" si="3">F5*H5</f>
         <v>1.0612565021243408</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2237754316221157</v>
+      </c>
+    </row>
+    <row r="6" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F6" s="5">
         <v>3</v>
       </c>
@@ -1211,7 +5502,7 @@
         <v>3.4</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2237754316221157</v>
       </c>
       <c r="I6" s="6">
@@ -1219,14 +5510,21 @@
         <v>9</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.671326294866347</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="X6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7404661748405046</v>
+      </c>
+    </row>
+    <row r="7" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F7" s="5">
         <v>4</v>
       </c>
@@ -1234,7 +5532,7 @@
         <v>5.7</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7404661748405046</v>
       </c>
       <c r="I7" s="6">
@@ -1242,14 +5540,21 @@
         <v>16</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9618646993620183</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="29"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1282317058492679</v>
+      </c>
+    </row>
+    <row r="8" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="5">
         <v>5</v>
       </c>
@@ -1257,7 +5562,7 @@
         <v>8.4</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1282317058492679</v>
       </c>
       <c r="I8" s="6">
@@ -1265,18 +5570,18 @@
         <v>25</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.64115852924634</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="6">
@@ -1284,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -1295,11 +5600,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -1307,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="12">
@@ -1328,11 +5633,11 @@
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="6">
@@ -1340,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
@@ -1356,11 +5661,11 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="6">
@@ -1368,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="12">
@@ -1381,11 +5686,11 @@
         <v>0.34308130042789264</v>
       </c>
     </row>
-    <row r="13" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" s="6">
@@ -1393,18 +5698,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="6:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14" s="6">
@@ -1412,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14" s="19" t="s">
@@ -1426,11 +5731,11 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -1438,15 +5743,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -1454,15 +5759,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="6">
@@ -1470,15 +5778,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18" s="6">
@@ -1486,15 +5794,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -1502,15 +5810,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20" s="6">
@@ -1518,22 +5826,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="8">
-        <f t="shared" ref="F21:G21" si="3">SUM(F4:F20)</f>
+        <f t="shared" ref="F21:G21" si="4">SUM(F4:F20)</f>
         <v>15</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.700000000000003</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="4">SUM(H4:H20)</f>
+        <f t="shared" ref="H21" si="5">SUM(H4:H20)</f>
         <v>4.9299543828141132</v>
       </c>
       <c r="I21" s="9">
@@ -1554,7 +5862,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:27" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -1563,17 +5871,39 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
+    <row r="23" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF479F44-E340-4DDF-A0A6-FFCC584E9C63}">
-  <dimension ref="E1:W22"/>
+  <dimension ref="E1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E17" s="23"/>
       <c r="F17" s="31">
         <f t="shared" si="0"/>
@@ -2007,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E18" s="23"/>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
@@ -2027,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E19" s="23"/>
       <c r="F19" s="31">
         <f t="shared" si="0"/>
@@ -2047,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E20" s="23"/>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
@@ -2068,7 +6398,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="8">
         <f>SUM(E4:E20)</f>
         <v>15</v>
@@ -2103,7 +6433,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -2112,17 +6442,38 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
+    <row r="23" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803B4C9E-8A60-4D57-AACF-2E84BA4F73FE}">
-  <dimension ref="E1:W22"/>
+  <dimension ref="E1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,13 +6890,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E17" s="23"/>
       <c r="F17" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2559,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E18" s="23"/>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
@@ -2579,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E19" s="23"/>
       <c r="F19" s="31">
         <f t="shared" si="0"/>
@@ -2599,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E20" s="23"/>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
@@ -2620,7 +6971,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="8">
         <f>SUM(E4:E20)</f>
         <v>15</v>
@@ -2655,7 +7006,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +7015,28 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
+    <row r="23" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
+++ b/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA4F6A9-5A33-4731-BE37-A9474AE3B305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066878E0-49B1-422C-B429-107282E1E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo Lineal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>Xi</t>
   </si>
@@ -116,6 +116,96 @@
   <si>
     <t>La forma de la curva: Si la curva se curva hacia arriba de manera constante, un modelo potencial podría ser más apropiado. Si la curva muestra un crecimiento inicial rápido y luego se aplana, un modelo de crecimiento podría ser más adecuado.</t>
   </si>
+  <si>
+    <t>Ejercicio 1</t>
+  </si>
+  <si>
+    <t>Ejercicio 3</t>
+  </si>
+  <si>
+    <t>Ejercicio 2</t>
+  </si>
+  <si>
+    <t>Como en el grafico no es curva uso metodo lineal</t>
+  </si>
+  <si>
+    <t>Ejercicio 4</t>
+  </si>
+  <si>
+    <t>RTA:</t>
+  </si>
+  <si>
+    <t>Como el modelo me muestra un crecimiento grande al inicio</t>
+  </si>
+  <si>
+    <t>Y despues se aplana, decido usar de crecimiento</t>
+  </si>
+  <si>
+    <t>Ejercicio 5</t>
+  </si>
+  <si>
+    <t>Es un crecimiento no tan constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este caso es un crecimiento </t>
+  </si>
+  <si>
+    <t>constante, realizo metodo de potencia</t>
+  </si>
+  <si>
+    <t>o exponencial</t>
+  </si>
+  <si>
+    <t>lo probe en exponencial</t>
+  </si>
+  <si>
+    <t>Quedo bien</t>
+  </si>
+  <si>
+    <t>voy a potencia</t>
+  </si>
+  <si>
+    <t>Ejercicio3</t>
+  </si>
+  <si>
+    <t>Habiendolo probado en Geogebra</t>
+  </si>
+  <si>
+    <t>No condice como la de exponencial</t>
+  </si>
+  <si>
+    <t>Este metodo no va para esta actv</t>
+  </si>
+  <si>
+    <t>Habiendolo probado en Potencia</t>
+  </si>
+  <si>
+    <t>Este es el que mejor le va</t>
+  </si>
+  <si>
+    <t>Comparando en geogebra</t>
+  </si>
+  <si>
+    <t>Pasa cerca pero no condice</t>
+  </si>
+  <si>
+    <t>Habiendolo visto en geogebra</t>
+  </si>
+  <si>
+    <t>Este no va tan bien</t>
+  </si>
+  <si>
+    <t>Este va como piña</t>
+  </si>
+  <si>
+    <t>Coincide mas la potencia</t>
+  </si>
+  <si>
+    <t>Rta definitiva</t>
+  </si>
+  <si>
+    <t>Rta Definitiva</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +240,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -366,11 +462,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +577,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,6 +1044,1046 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$F$28:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$G$28:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4147-4756-9411-BA583803594A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="948900719"/>
+        <c:axId val="948901199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="948900719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948901199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="948901199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948900719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Ejercicio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$F$50:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$G$50:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7C1-430B-91B8-15D884818E33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1150132975"/>
+        <c:axId val="1150147375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1150132975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150147375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1150147375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150132975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$F$71:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metodo Lineal'!$G$71:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA6C-4B61-B814-5EF15B13F128}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="948898799"/>
+        <c:axId val="948899759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="948898799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948899759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="948899759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948898799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Ejemplo</c:v>
           </c:tx>
@@ -1175,7 +2353,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1497,7 +2675,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1979,6 +3157,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -3532,6 +4830,1554 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4202,6 +7048,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF346FD-7D7A-533F-C226-432C59111C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDC0BE9-25B4-ED1F-F719-B89B101520B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AED451E-B6F3-0FCB-7804-80675C0CC496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4996,10 +7950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABAA54-3098-44BF-93C5-BB384424DD94}">
-  <dimension ref="F1:U21"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,7 +7963,10 @@
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="35" t="s">
+        <v>29</v>
+      </c>
       <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
@@ -5017,7 +7974,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="K2" s="11" t="s">
         <v>4</v>
@@ -5025,7 +7982,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5055,7 +8012,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
     </row>
-    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F4" s="5">
         <v>1</v>
       </c>
@@ -5075,7 +8032,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F5" s="5">
         <v>2</v>
       </c>
@@ -5095,7 +8052,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F6" s="5">
         <v>3</v>
       </c>
@@ -5115,7 +8072,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F7" s="5">
         <v>4</v>
       </c>
@@ -5135,7 +8092,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="5">
         <v>5</v>
       </c>
@@ -5155,7 +8112,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F9" s="5">
         <v>6</v>
       </c>
@@ -5179,7 +8136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="5">
         <v>7</v>
       </c>
@@ -5214,7 +8171,7 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -5236,7 +8193,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
@@ -5252,7 +8209,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
@@ -5268,7 +8225,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -5284,60 +8241,60 @@
       <c r="N14" s="20"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="8">
-        <f t="shared" ref="F21:I21" si="2">SUM(F4:F20)</f>
+        <f>SUM(F4:F20)</f>
         <v>28</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="2"/>
+        <f>SUM(G4:G20)</f>
         <v>24</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="2"/>
+        <f>SUM(H4:H20)</f>
         <v>140</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(I4:I20)</f>
         <v>119.5</v>
       </c>
       <c r="K21" s="27" t="s">
@@ -5349,6 +8306,818 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="12">
+        <f>COUNTA(F28:F44)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <f>F28*F28</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <f>F28*G28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29:H37" si="2">F29*F29</f>
+        <v>9</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" ref="I29:I37" si="3">F29*G29</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="5">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
+        <v>6</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>12</v>
+      </c>
+      <c r="G33" s="6">
+        <v>8</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="K34" s="12">
+        <f>((K27*I45)-(F45*G45))/((K27*H45)-(F45*F45))</f>
+        <v>0.50066755674232311</v>
+      </c>
+      <c r="M34" s="12">
+        <f>(G45/K27)-K34*(F45/K27)</f>
+        <v>1.4429906542056079</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F35" s="5">
+        <v>16</v>
+      </c>
+      <c r="G35" s="6">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <v>18</v>
+      </c>
+      <c r="G36" s="6">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="5">
+        <v>20</v>
+      </c>
+      <c r="G37" s="6">
+        <v>10</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="20" t="str">
+        <f>"Y = "&amp;K34&amp;"x + "&amp;M34</f>
+        <v>Y = 0,500667556742323x + 1,44299065420561</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="22"/>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="8">
+        <f>SUM(F28:F44)</f>
+        <v>105</v>
+      </c>
+      <c r="G45" s="9">
+        <f>SUM(G28:G44)</f>
+        <v>67</v>
+      </c>
+      <c r="H45" s="9">
+        <f>SUM(H28:H44)</f>
+        <v>1477</v>
+      </c>
+      <c r="I45" s="10">
+        <f>SUM(I28:I44)</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="12">
+        <f>COUNTA(F50:F66)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H50" s="6">
+        <f>F50*F50</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <f>F50*G50</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51:H59" si="4">F51*F51</f>
+        <v>4</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" ref="I51:I59" si="5">F51*G51</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F52" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F53" s="5">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="5">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <v>8</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="4"/>
+        <v>72.25</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="5"/>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="K56" s="12">
+        <f>((K49*I67)-(F67*G67))/((K49*H67)-(F67*F67))</f>
+        <v>0.11677852348993273</v>
+      </c>
+      <c r="M56" s="12">
+        <f>(G67/K49)-K56*(F67/K49)</f>
+        <v>0.43758389261745056</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
+      <c r="K60" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="20" t="str">
+        <f>"Y = "&amp;K56&amp;"x + "&amp;M56</f>
+        <v>Y = 0,116778523489933x + 0,437583892617451</v>
+      </c>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="22"/>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="8">
+        <f>SUM(F50:F66)</f>
+        <v>32</v>
+      </c>
+      <c r="G67" s="9">
+        <f>SUM(G50:G66)</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="H67" s="9">
+        <f>SUM(H50:H66)</f>
+        <v>199.5</v>
+      </c>
+      <c r="I67" s="10">
+        <f>SUM(I50:I66)</f>
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K69" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="12">
+        <f>COUNTA(F71:F87)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F71" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G71" s="6">
+        <v>550</v>
+      </c>
+      <c r="H71" s="6">
+        <f>F71*F71</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="I71" s="7">
+        <f>F71*G71</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F72" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G72" s="6">
+        <v>750</v>
+      </c>
+      <c r="H72" s="6">
+        <f t="shared" ref="H72:H80" si="6">F72*F72</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" ref="I72:I80" si="7">F72*G72</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F73" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="6">
+        <f t="shared" si="6"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="7"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F74" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H74" s="6">
+        <f t="shared" si="6"/>
+        <v>1.44</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="7"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="G75" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H75" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="7"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F76" s="5">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6">
+        <v>2700</v>
+      </c>
+      <c r="H76" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="7"/>
+        <v>5400</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G77" s="6">
+        <v>3750</v>
+      </c>
+      <c r="H77" s="6">
+        <f t="shared" si="6"/>
+        <v>5.76</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="K77" s="12">
+        <f>((K70*I88)-(F88*G88))/((K70*H88)-(F88*F88))</f>
+        <v>1316.0307843458329</v>
+      </c>
+      <c r="M77" s="12">
+        <f>(G88/K70)-K77*(F88/K70)</f>
+        <v>147.07712461110168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="25"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="25"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="23"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="8">
+        <f>SUM(F71:F87)</f>
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="G88" s="9">
+        <f>SUM(G71:G87)</f>
+        <v>12150</v>
+      </c>
+      <c r="H88" s="9">
+        <f>SUM(H71:H87)</f>
+        <v>14.5625</v>
+      </c>
+      <c r="I88" s="10">
+        <f>SUM(I71:I87)</f>
+        <v>20407.5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5359,10 +9128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA40654-A814-40D2-871E-188E3E9FF765}">
-  <dimension ref="F1:AA24"/>
+  <dimension ref="C1:AA67"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,7 +9139,10 @@
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
@@ -5378,7 +9150,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="M2" s="11" t="s">
         <v>4</v>
@@ -5395,7 +9167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5434,7 +9206,7 @@
         <v>-0.69314718055994529</v>
       </c>
     </row>
-    <row r="4" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F4" s="5">
         <v>1</v>
       </c>
@@ -5460,11 +9232,11 @@
         <v>2</v>
       </c>
       <c r="Y4" s="6">
-        <f t="shared" ref="Y4:Y7" si="1">IF(G5 &gt; 0, LN(G5), 0)</f>
+        <f>IF(G5 &gt; 0, LN(G5), 0)</f>
         <v>0.53062825106217038</v>
       </c>
     </row>
-    <row r="5" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F5" s="5">
         <v>2</v>
       </c>
@@ -5472,7 +9244,7 @@
         <v>1.7</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H20" si="2">IF(G5 &gt; 0, LN(G5), 0)</f>
+        <f t="shared" ref="H5:H20" si="1">IF(G5 &gt; 0, LN(G5), 0)</f>
         <v>0.53062825106217038</v>
       </c>
       <c r="I5" s="6">
@@ -5480,7 +9252,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J20" si="3">F5*H5</f>
+        <f t="shared" ref="J5:J20" si="2">F5*H5</f>
         <v>1.0612565021243408</v>
       </c>
       <c r="M5" s="1"/>
@@ -5490,11 +9262,11 @@
         <v>3</v>
       </c>
       <c r="Y5" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(G6 &gt; 0, LN(G6), 0)</f>
         <v>1.2237754316221157</v>
       </c>
     </row>
-    <row r="6" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F6" s="5">
         <v>3</v>
       </c>
@@ -5502,7 +9274,7 @@
         <v>3.4</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2237754316221157</v>
       </c>
       <c r="I6" s="6">
@@ -5510,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.671326294866347</v>
       </c>
       <c r="M6" s="1"/>
@@ -5520,11 +9292,11 @@
         <v>4</v>
       </c>
       <c r="Y6" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(G7 &gt; 0, LN(G7), 0)</f>
         <v>1.7404661748405046</v>
       </c>
     </row>
-    <row r="7" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F7" s="5">
         <v>4</v>
       </c>
@@ -5532,7 +9304,7 @@
         <v>5.7</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7404661748405046</v>
       </c>
       <c r="I7" s="6">
@@ -5540,7 +9312,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.9618646993620183</v>
       </c>
       <c r="M7" s="1"/>
@@ -5550,11 +9322,11 @@
         <v>5</v>
       </c>
       <c r="Y7" s="6">
-        <f t="shared" si="1"/>
+        <f>IF(G8 &gt; 0, LN(G8), 0)</f>
         <v>2.1282317058492679</v>
       </c>
     </row>
-    <row r="8" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="5">
         <v>5</v>
       </c>
@@ -5562,7 +9334,7 @@
         <v>8.4</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1282317058492679</v>
       </c>
       <c r="I8" s="6">
@@ -5570,18 +9342,18 @@
         <v>25</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.64115852924634</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="6">
@@ -5589,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
@@ -5600,11 +9372,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -5612,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="12">
@@ -5633,11 +9405,11 @@
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
     </row>
-    <row r="11" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="6">
@@ -5645,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
@@ -5661,11 +9433,11 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="6">
@@ -5673,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="12">
@@ -5686,11 +9458,11 @@
         <v>0.34308130042789264</v>
       </c>
     </row>
-    <row r="13" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="6">
@@ -5698,18 +9470,18 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="6">
@@ -5717,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="19" t="s">
@@ -5731,11 +9503,11 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F15" s="23"/>
       <c r="G15" s="24"/>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -5743,15 +9515,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="6:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -5759,18 +9531,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="6">
@@ -5778,15 +9550,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="6">
@@ -5794,15 +9566,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -5810,15 +9582,15 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="6">
@@ -5826,22 +9598,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="8">
-        <f t="shared" ref="F21:G21" si="4">SUM(F4:F20)</f>
+        <f>SUM(F4:F20)</f>
         <v>15</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="4"/>
+        <f>SUM(G4:G20)</f>
         <v>19.700000000000003</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="5">SUM(H4:H20)</f>
+        <f>SUM(H4:H20)</f>
         <v>4.9299543828141132</v>
       </c>
       <c r="I21" s="9">
@@ -5862,7 +9634,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -5871,8 +9643,8 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="6:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="33" t="s">
         <v>28</v>
       </c>
@@ -5891,6 +9663,825 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
     </row>
+    <row r="26" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="12">
+        <f>COUNTA(F29:F45)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="6">
+        <v>550</v>
+      </c>
+      <c r="H29" s="6">
+        <f>IF(G29 &gt; 0, LN(G29), 0)</f>
+        <v>6.3099182782265162</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I45" si="3">F29*F29</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="J29" s="7">
+        <f>F29*H29</f>
+        <v>0.31549591391132581</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>750</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ref="H30:H45" si="4">IF(G30 &gt; 0, LN(G30), 0)</f>
+        <v>6.620073206530356</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="3"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:J45" si="5">F30*H30</f>
+        <v>2.6480292826121428</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="4"/>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="3"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="J31" s="42">
+        <f t="shared" si="5"/>
+        <v>5.5262042231857098</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="4"/>
+        <v>7.2442275156033498</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>1.44</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="5"/>
+        <v>8.6930730187240197</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="4"/>
+        <v>7.6009024595420822</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5600000000000005</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="5"/>
+        <v>12.161443935267332</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2700</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="4"/>
+        <v>7.90100705199242</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="5"/>
+        <v>15.80201410398484</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3750</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2295111189644565</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="3"/>
+        <v>5.76</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="5"/>
+        <v>19.750826685514696</v>
+      </c>
+      <c r="M35" s="12">
+        <f>((M28*J46)-(F46*H46))/((M28*I46)-(F46*F46))</f>
+        <v>0.81566802535586358</v>
+      </c>
+      <c r="O35" s="12">
+        <f>(H46/M28)-M35*(F46/M28)</f>
+        <v>6.2744285850834673</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <f>M35</f>
+        <v>0.81566802535586358</v>
+      </c>
+      <c r="O37" s="12">
+        <f>EXP(O35)</f>
+        <v>530.82297491477391</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="20" t="str">
+        <f>"Y = "&amp;O37&amp;" * e  ^("&amp;M37&amp;")*x"</f>
+        <v>Y = 530,822974914774 * e  ^(0,815668025355864)*x</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="22"/>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="8">
+        <f>SUM(F29:F45)</f>
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="G46" s="9">
+        <f>SUM(G29:G45)</f>
+        <v>12150</v>
+      </c>
+      <c r="H46" s="9">
+        <f>SUM(H29:H45)</f>
+        <v>50.813394909841321</v>
+      </c>
+      <c r="I46" s="9">
+        <f>SUM(I29:I45)</f>
+        <v>14.5625</v>
+      </c>
+      <c r="J46" s="10">
+        <f>SUM(J29:J45)</f>
+        <v>64.897087163200069</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="12">
+        <f>COUNTA(F50:F66)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H50" s="6">
+        <f>IF(G50 &gt; 0, LN(G50), 0)</f>
+        <v>-0.916290731874155</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" ref="I50:I66" si="6">F50*F50</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <f>F50*H50</f>
+        <v>-0.916290731874155</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51:H66" si="7">IF(G51 &gt; 0, LN(G51), 0)</f>
+        <v>-0.35667494393873245</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" ref="J51:J66" si="8">F51*H51</f>
+        <v>-0.71334988787746489</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+      <c r="J52" s="42">
+        <f t="shared" si="8"/>
+        <v>-0.55785887828552427</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F53" s="5">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="5">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="7"/>
+        <v>0.18232155679395459</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0939293407637276</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <v>8</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="7"/>
+        <v>0.26236426446749106</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0989141157399285</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="7"/>
+        <v>0.33647223662121289</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="6"/>
+        <v>72.25</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8600140112803096</v>
+      </c>
+      <c r="M56" s="12">
+        <f>((M49*J67)-(F67*H67))/((M49*I67)-(F67*F67))</f>
+        <v>0.1340562233665766</v>
+      </c>
+      <c r="O56" s="12">
+        <f>(H67/M49)-M56*(F67/M49)</f>
+        <v>-0.71496433099641288</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <f>M56</f>
+        <v>0.1340562233665766</v>
+      </c>
+      <c r="O58" s="12">
+        <f>EXP(O56)</f>
+        <v>0.48920956110271985</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" s="20" t="str">
+        <f>"Y = "&amp;O58&amp;" * e  ^("&amp;M58&amp;")*x"</f>
+        <v>Y = 0,48920956110272 * e  ^(0,134056223366577)*x</v>
+      </c>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="22"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="8">
+        <f>SUM(F50:F66)</f>
+        <v>32</v>
+      </c>
+      <c r="G67" s="9">
+        <f>SUM(G50:G66)</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="H67" s="9">
+        <f>SUM(H50:H66)</f>
+        <v>-0.71495116924443858</v>
+      </c>
+      <c r="I67" s="9">
+        <f>SUM(I50:I66)</f>
+        <v>199.5</v>
+      </c>
+      <c r="J67" s="10">
+        <f>SUM(J50:J66)</f>
+        <v>3.8653579697468214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5900,10 +10491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF479F44-E340-4DDF-A0A6-FFCC584E9C63}">
-  <dimension ref="E1:AA24"/>
+  <dimension ref="B1:AA68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,7 +10502,10 @@
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
       <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
@@ -5919,7 +10513,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="M2" s="11" t="s">
         <v>4</v>
@@ -5927,7 +10521,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
@@ -5962,7 +10556,7 @@
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E4" s="5">
         <v>1</v>
       </c>
@@ -5990,7 +10584,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E5" s="5">
         <v>2</v>
       </c>
@@ -6017,7 +10611,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E6" s="5">
         <v>3</v>
       </c>
@@ -6044,7 +10638,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E7" s="5">
         <v>4</v>
       </c>
@@ -6071,7 +10665,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="5">
         <v>5</v>
       </c>
@@ -6098,7 +10692,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
       <c r="F9" s="31">
         <f t="shared" si="0"/>
@@ -6125,7 +10719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="5"/>
       <c r="F10" s="31">
         <f t="shared" si="0"/>
@@ -6163,7 +10757,7 @@
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
       <c r="F11" s="31">
         <f t="shared" si="0"/>
@@ -6195,7 +10789,7 @@
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
     </row>
-    <row r="12" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="5"/>
       <c r="F12" s="31">
         <f t="shared" si="0"/>
@@ -6224,7 +10818,7 @@
         <v>0.50093364909774885</v>
       </c>
     </row>
-    <row r="13" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="5"/>
       <c r="F13" s="31">
         <f t="shared" si="0"/>
@@ -6247,7 +10841,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="23"/>
       <c r="F14" s="31">
         <f t="shared" si="0"/>
@@ -6277,7 +10871,7 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E15" s="23"/>
       <c r="F15" s="31">
         <f t="shared" si="0"/>
@@ -6297,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="E16" s="23"/>
       <c r="F16" s="31">
         <f t="shared" si="0"/>
@@ -6317,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E17" s="23"/>
       <c r="F17" s="31">
         <f t="shared" si="0"/>
@@ -6337,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E18" s="23"/>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
@@ -6357,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E19" s="23"/>
       <c r="F19" s="31">
         <f t="shared" si="0"/>
@@ -6377,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E20" s="23"/>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
@@ -6398,29 +10992,29 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="8">
-        <f>SUM(E4:E20)</f>
+        <f t="shared" ref="E21:J21" si="4">SUM(E4:E20)</f>
         <v>15</v>
       </c>
       <c r="F21" s="32">
-        <f>SUM(F4:F20)</f>
+        <f t="shared" si="4"/>
         <v>2.0791812460476247</v>
       </c>
       <c r="G21" s="9">
-        <f>SUM(G4:G20)</f>
+        <f t="shared" si="4"/>
         <v>19.700000000000003</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="4">SUM(H4:H20)</f>
+        <f t="shared" si="4"/>
         <v>2.1410519844909208</v>
       </c>
       <c r="I21" s="9">
-        <f>SUM(I4:I20)</f>
+        <f t="shared" si="4"/>
         <v>1.1692990501140419</v>
       </c>
       <c r="J21" s="10">
-        <f>SUM(J4:J20)</f>
+        <f t="shared" si="4"/>
         <v>1.4240774311970901</v>
       </c>
       <c r="M21" s="27" t="s">
@@ -6433,7 +11027,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -6442,8 +11036,8 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="33" t="s">
         <v>28</v>
       </c>
@@ -6462,6 +11056,960 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
     </row>
+    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="12">
+        <f>COUNTA(E29:E45)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="31">
+        <f>IF(E29 &gt; 0, LOG(E29), 0)</f>
+        <v>-1.3010299956639813</v>
+      </c>
+      <c r="G29" s="6">
+        <v>550</v>
+      </c>
+      <c r="H29" s="6">
+        <f>IF(G29 &gt; 0, LOG(G29), 0)</f>
+        <v>2.7403626894942437</v>
+      </c>
+      <c r="I29" s="6">
+        <f>F29*F29</f>
+        <v>1.6926790496174191</v>
+      </c>
+      <c r="J29" s="7">
+        <f>F29*H29</f>
+        <v>-3.5652940580304318</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" ref="F30:F45" si="5">IF(E30 &gt; 0, LOG(E30), 0)</f>
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="G30" s="6">
+        <v>750</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ref="H30:H45" si="6">IF(G30 &gt; 0, LOG(G30), 0)</f>
+        <v>2.8750612633917001</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30:I45" si="7">F30*F30</f>
+        <v>0.15835625050190136</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:J45" si="8">F30*H30</f>
+        <v>-1.1441019040867326</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="5"/>
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="7"/>
+        <v>9.3915506212216594E-3</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="8"/>
+        <v>-0.29073003902416916</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" si="5"/>
+        <v>7.9181246047624818E-2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="6"/>
+        <v>3.1461280356782382</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="7"/>
+        <v>6.2696697256545012E-3</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="8"/>
+        <v>0.24911433809036912</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" si="5"/>
+        <v>0.20411998265592479</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="6"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="7"/>
+        <v>4.1664967319455036E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="8"/>
+        <v>0.6738061854616193</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="5"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2700</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="6"/>
+        <v>3.4313637641589874</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="7"/>
+        <v>9.0619058289456544E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0329434190463223</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="F35" s="31">
+        <f t="shared" si="5"/>
+        <v>0.38021124171160603</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3750</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="6"/>
+        <v>3.5740312677277188</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="7"/>
+        <v>0.1445605883238813</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="8"/>
+        <v>1.3588868662188613</v>
+      </c>
+      <c r="M35" s="12">
+        <f>((M28*J46)-(F46*H46))/((M28*I46)-(F46*F46))</f>
+        <v>0.45748669219744609</v>
+      </c>
+      <c r="O35" s="12">
+        <f>(H46/M28)-M35*(F46/M28)</f>
+        <v>3.206900411791799</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" s="5"/>
+      <c r="F36" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="5"/>
+      <c r="F37" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <f>M35</f>
+        <v>0.45748669219744609</v>
+      </c>
+      <c r="O37" s="12">
+        <f>POWER(10,O35)</f>
+        <v>1610.2763398496299</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="5"/>
+      <c r="F38" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="23"/>
+      <c r="F39" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="20" t="str">
+        <f>"Y = "&amp;O37&amp;" * x  ^("&amp;M37&amp;")"</f>
+        <v>Y = 1610,27633984963 * x  ^(0,457486692197446)</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="23"/>
+      <c r="F40" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="23"/>
+      <c r="F41" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="23"/>
+      <c r="F42" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="23"/>
+      <c r="F43" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="23"/>
+      <c r="F44" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="23"/>
+      <c r="F45" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="8">
+        <f t="shared" ref="E46:J46" si="9">SUM(E29:E45)</f>
+        <v>8.4500000000000011</v>
+      </c>
+      <c r="F46" s="32">
+        <f t="shared" si="9"/>
+        <v>-0.83133755126493825</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="9"/>
+        <v>12150</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="9"/>
+        <v>22.06797701611487</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="9"/>
+        <v>2.1435411343989896</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.6853751923241613</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="12">
+        <f>COUNTA(E51:E67)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31">
+        <f>IF(E51 &gt; 0, LOG(E51), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H51" s="6">
+        <f>IF(G51 &gt; 0, LOG(G51), 0)</f>
+        <v>-0.3979400086720376</v>
+      </c>
+      <c r="I51" s="6">
+        <f>F51*F51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <f>F51*H51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" ref="F52:F67" si="10">IF(E52 &gt; 0, LOG(E52), 0)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" ref="H52:H67" si="11">IF(G52 &gt; 0, LOG(G52), 0)</f>
+        <v>-0.15490195998574319</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" ref="I52:I67" si="12">F52*F52</f>
+        <v>9.0619058289456544E-2</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" ref="J52:J67" si="13">F52*H52</f>
+        <v>-4.6630136342850459E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E53" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="10"/>
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="11"/>
+        <v>-9.6910013008056392E-2</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="12"/>
+        <v>0.15835625050190136</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="13"/>
+        <v>-3.8564371416833235E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E54" s="5">
+        <v>4</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="10"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="12"/>
+        <v>0.36247623315782618</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="5">
+        <v>6</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="10"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="11"/>
+        <v>7.9181246047624818E-2</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="12"/>
+        <v>0.60551936847362808</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="13"/>
+        <v>6.161498561889419E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="31">
+        <f t="shared" si="10"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="11"/>
+        <v>0.11394335230683679</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="12"/>
+        <v>0.81557152460510873</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="13"/>
+        <v>0.10290110055259967</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="F57" s="31">
+        <f t="shared" si="10"/>
+        <v>0.92941892571429274</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="11"/>
+        <v>0.14612803567823801</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="12"/>
+        <v>0.86381953947591006</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="13"/>
+        <v>0.13581416193680781</v>
+      </c>
+      <c r="M57" s="12">
+        <f>((M50*J68)-(F68*H68))/((M50*I68)-(F68*F68))</f>
+        <v>0.54703607501309592</v>
+      </c>
+      <c r="O57" s="12">
+        <f>(H68/M50)-M57*(F68/M50)</f>
+        <v>-0.35004785410645778</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E58" s="5"/>
+      <c r="F58" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="5"/>
+      <c r="F59" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="12">
+        <f>M57</f>
+        <v>0.54703607501309592</v>
+      </c>
+      <c r="O59" s="12">
+        <f>POWER(10,O57)</f>
+        <v>0.44663437562292907</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="5"/>
+      <c r="F60" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="23"/>
+      <c r="F61" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61" s="20" t="str">
+        <f>"Y = "&amp;O59&amp;" * x  ^("&amp;M59&amp;")"</f>
+        <v>Y = 0,446634375622929 * x  ^(0,547036075013096)</v>
+      </c>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="22"/>
+      <c r="S61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E62" s="23"/>
+      <c r="F62" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E63" s="23"/>
+      <c r="F63" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E64" s="23"/>
+      <c r="F64" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="23"/>
+      <c r="F65" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66" s="23"/>
+      <c r="F66" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="23"/>
+      <c r="F67" s="31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="8">
+        <f t="shared" ref="E68:J68" si="14">SUM(E51:E67)</f>
+        <v>32</v>
+      </c>
+      <c r="F68" s="32">
+        <f t="shared" si="14"/>
+        <v>3.9116901587538617</v>
+      </c>
+      <c r="G68" s="9">
+        <f t="shared" si="14"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="H68" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.31049934763313758</v>
+      </c>
+      <c r="I68" s="9">
+        <f t="shared" si="14"/>
+        <v>2.8963619745038307</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="14"/>
+        <v>0.21513574034861799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6470,10 +12018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803B4C9E-8A60-4D57-AACF-2E84BA4F73FE}">
-  <dimension ref="E1:AA24"/>
+  <dimension ref="B1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,8 +12386,8 @@
         <v>7</v>
       </c>
       <c r="N14" s="20" t="str">
-        <f>"Y = "&amp;O12&amp;" * x  ^("&amp;M12&amp;")"</f>
-        <v>Y = 0,347153948899676 * x  ^(2,39747238305092)</v>
+        <f>"Y = "&amp;O12&amp;" * (x /("&amp;M12&amp;"+x))"</f>
+        <v>Y = 0,347153948899676 * (x /(2,39747238305092+x))</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="20"/>
@@ -6890,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E17" s="23"/>
       <c r="F17" s="31">
         <f t="shared" si="0"/>
@@ -6910,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E18" s="23"/>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
@@ -6930,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E19" s="23"/>
       <c r="F19" s="31">
         <f t="shared" si="0"/>
@@ -6950,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E20" s="23"/>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
@@ -6971,29 +12519,29 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="8">
-        <f>SUM(E4:E20)</f>
+        <f t="shared" ref="E21:J21" si="4">SUM(E4:E20)</f>
         <v>15</v>
       </c>
       <c r="F21" s="32">
-        <f>SUM(F4:F20)</f>
+        <f t="shared" si="4"/>
         <v>2.2833333333333332</v>
       </c>
       <c r="G21" s="9">
-        <f>SUM(G4:G20)</f>
+        <f t="shared" si="4"/>
         <v>19.700000000000003</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="4">SUM(H4:H20)</f>
+        <f t="shared" si="4"/>
         <v>3.1768391567153178</v>
       </c>
       <c r="I21" s="9">
-        <f>SUM(I4:I20)</f>
+        <f t="shared" si="4"/>
         <v>1.4636111111111112</v>
       </c>
       <c r="J21" s="10">
-        <f>SUM(J4:J20)</f>
+        <f t="shared" si="4"/>
         <v>2.4598260356774286</v>
       </c>
       <c r="M21" s="27" t="s">
@@ -7006,7 +12554,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="M22" s="27" t="s">
         <v>16</v>
       </c>
@@ -7015,25 +12563,507 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M24" s="33" t="s">
+    <row r="23" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+    </row>
+    <row r="25" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="12">
+        <f>COUNTA(E28:E44)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <f>IF(E28 &gt; 0,1/E28, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H28" s="6">
+        <f>IF(G28 &gt; 0, 1/G28, 0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="6">
+        <f>F28*F28</f>
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <f>F28*H28</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="31">
+        <f t="shared" ref="F29:F44" si="5">IF(E29 &gt; 0,1/E29, 0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29:H44" si="6">IF(G29 &gt; 0, 1/G29, 0)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I44" si="7">F29*F29</f>
+        <v>0.25</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" ref="J29:J44" si="8">F29*H29</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E30" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="7"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="5">
+        <v>6</v>
+      </c>
+      <c r="F32" s="31">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="7"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="31">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="8"/>
+        <v>9.6153846153846145E-2</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="5"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="7"/>
+        <v>1.384083044982699E-2</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="8"/>
+        <v>8.4033613445378158E-2</v>
+      </c>
+      <c r="M34" s="12">
+        <f>((M27*J45)-(F45*H45))/((M27*I45)-(F45*F45))</f>
+        <v>1.9819267339751407</v>
+      </c>
+      <c r="O34" s="12">
+        <f>(H45/M27)-M34*(F45/M27)</f>
+        <v>0.48900699317753005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="5"/>
+      <c r="F35" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="5"/>
+      <c r="F36" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <f>M34</f>
+        <v>1.9819267339751407</v>
+      </c>
+      <c r="O36" s="12">
+        <f>POWER(10,O34)</f>
+        <v>3.0832375973325847</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="5"/>
+      <c r="F37" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="23"/>
+      <c r="F38" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="20" t="str">
+        <f>"Y = "&amp;O36&amp;" * (x /("&amp;M36&amp;"+x))"</f>
+        <v>Y = 3,08323759733258 * (x /(1,98192673397514+x))</v>
+      </c>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="23"/>
+      <c r="F39" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="23"/>
+      <c r="F40" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="23"/>
+      <c r="F41" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="23"/>
+      <c r="F42" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="23"/>
+      <c r="F43" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="23"/>
+      <c r="F44" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="8">
+        <f t="shared" ref="E45:J45" si="9">SUM(E28:E44)</f>
+        <v>32</v>
+      </c>
+      <c r="F45" s="32">
+        <f t="shared" si="9"/>
+        <v>2.5593137254901959</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="9"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="9"/>
+        <v>8.4954212454212445</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="9"/>
+        <v>1.5297436082276048</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="9"/>
+        <v>4.2833620627738274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
+++ b/Metodo Segundo Parcial/Metodo Regresion Lineal MC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Analisis Numerico Git\Metodo Segundo Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066878E0-49B1-422C-B429-107282E1E4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD9077-01A8-48E4-8C36-8787F75673A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7352DA56-3DAD-4B0F-ACAC-40C610105B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo Lineal" sheetId="1" r:id="rId1"/>
@@ -7952,7 +7952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ABAA54-3098-44BF-93C5-BB384424DD94}">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F71" sqref="F71:G77"/>
     </sheetView>
   </sheetViews>
@@ -9130,7 +9130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA40654-A814-40D2-871E-188E3E9FF765}">
   <dimension ref="C1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
@@ -10493,7 +10493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF479F44-E340-4DDF-A0A6-FFCC584E9C63}">
   <dimension ref="B1:AA68"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
@@ -12020,7 +12020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803B4C9E-8A60-4D57-AACF-2E84BA4F73FE}">
   <dimension ref="B1:AD45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
